--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_会員登録確認画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_会員登録確認画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoitomohiro/document/flutter_document/2021年_テトリス/02_基本設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iwasuji/document/2021年_テトリス/02_基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5E2399-6A28-494E-B2AD-C8FB9C7110D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6276BCB-CEF9-D04F-A69F-77880403AE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -279,13 +277,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面遷移時</t>
     <rPh sb="0" eb="5">
       <t>ガメn</t>
@@ -508,10 +499,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>やり直す</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ホームに戻る</t>
     <rPh sb="0" eb="1">
       <t>ホームニモドル</t>
@@ -519,44 +506,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録</t>
-    <rPh sb="0" eb="1">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会員登録画面に遷移</t>
     <rPh sb="0" eb="6">
       <t>カイイn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダイアログを表示し、画面を遷移する(OK =&gt; 会員情報を登録し、メニュー画面へ/Cancel=&gt; 会員登録確認ページに留まる)</t>
-    <rPh sb="0" eb="2">
-      <t>ダイアログヲ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>、</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ガメンヲセン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カイイn</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="50" eb="56">
-      <t>カイイn</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>トドマル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -585,6 +537,27 @@
     </rPh>
     <rPh sb="58" eb="59">
       <t>トドマル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員情報を登録し画面を遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>ガメンヲセン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイイn</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -704,7 +677,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,6 +687,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,6 +988,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1164,7 +1161,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s7619"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s7636"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1223,7 +1220,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s8638"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s8655"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3419,198 +3416,198 @@
   </sheetPr>
   <dimension ref="A1:BB4"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="53" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="53" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="53" t="s">
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="53" t="s">
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="53" t="s">
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="55"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="61"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="56" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="62">
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="68">
         <v>44555</v>
       </c>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="56" t="s">
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="62">
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="68">
         <v>44650</v>
       </c>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="58"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="64"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="61"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="67"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -3741,283 +3738,283 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80">
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86">
         <v>44285</v>
       </c>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="83" t="s">
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="83" t="s">
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="84"/>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="84"/>
-      <c r="AG8" s="84"/>
-      <c r="AH8" s="84"/>
-      <c r="AI8" s="84"/>
-      <c r="AJ8" s="84"/>
-      <c r="AK8" s="84"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="83"/>
-      <c r="AN8" s="84"/>
-      <c r="AO8" s="84"/>
-      <c r="AP8" s="84"/>
-      <c r="AQ8" s="84"/>
-      <c r="AR8" s="84"/>
-      <c r="AS8" s="84"/>
-      <c r="AT8" s="84"/>
-      <c r="AU8" s="84"/>
-      <c r="AV8" s="84"/>
-      <c r="AW8" s="84"/>
-      <c r="AX8" s="84"/>
-      <c r="AY8" s="84"/>
-      <c r="AZ8" s="85"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="90"/>
+      <c r="AK8" s="90"/>
+      <c r="AL8" s="91"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="90"/>
+      <c r="AO8" s="90"/>
+      <c r="AP8" s="90"/>
+      <c r="AQ8" s="90"/>
+      <c r="AR8" s="90"/>
+      <c r="AS8" s="90"/>
+      <c r="AT8" s="90"/>
+      <c r="AU8" s="90"/>
+      <c r="AV8" s="90"/>
+      <c r="AW8" s="90"/>
+      <c r="AX8" s="90"/>
+      <c r="AY8" s="90"/>
+      <c r="AZ8" s="91"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="84"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="84"/>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="84"/>
-      <c r="AJ9" s="84"/>
-      <c r="AK9" s="84"/>
-      <c r="AL9" s="85"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="84"/>
-      <c r="AS9" s="84"/>
-      <c r="AT9" s="84"/>
-      <c r="AU9" s="84"/>
-      <c r="AV9" s="84"/>
-      <c r="AW9" s="84"/>
-      <c r="AX9" s="84"/>
-      <c r="AY9" s="84"/>
-      <c r="AZ9" s="85"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="90"/>
+      <c r="AW9" s="90"/>
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="90"/>
+      <c r="AZ9" s="91"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="85"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="84"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="85"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="90"/>
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="89"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="90"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="91"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="84"/>
-      <c r="AL11" s="85"/>
-      <c r="AM11" s="83"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="84"/>
-      <c r="AS11" s="84"/>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="84"/>
-      <c r="AV11" s="84"/>
-      <c r="AW11" s="84"/>
-      <c r="AX11" s="84"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="85"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="91"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
-        <f t="shared" ref="A9:A35" si="0">IF(G12="","",ROW()-7)</f>
+        <f t="shared" ref="A12:A35" si="0">IF(G12="","",ROW()-7)</f>
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="85"/>
-      <c r="AM12" s="83"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="84"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="84"/>
-      <c r="AW12" s="84"/>
-      <c r="AX12" s="84"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="85"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="90"/>
+      <c r="AK12" s="90"/>
+      <c r="AL12" s="91"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="90"/>
+      <c r="AO12" s="90"/>
+      <c r="AP12" s="90"/>
+      <c r="AQ12" s="90"/>
+      <c r="AR12" s="90"/>
+      <c r="AS12" s="90"/>
+      <c r="AT12" s="90"/>
+      <c r="AU12" s="90"/>
+      <c r="AV12" s="90"/>
+      <c r="AW12" s="90"/>
+      <c r="AX12" s="90"/>
+      <c r="AY12" s="90"/>
+      <c r="AZ12" s="91"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -4025,56 +4022,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="85"/>
-      <c r="AM13" s="83"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="84"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="84"/>
-      <c r="AX13" s="84"/>
-      <c r="AY13" s="84"/>
-      <c r="AZ13" s="85"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="90"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="90"/>
+      <c r="AJ13" s="90"/>
+      <c r="AK13" s="90"/>
+      <c r="AL13" s="91"/>
+      <c r="AM13" s="89"/>
+      <c r="AN13" s="90"/>
+      <c r="AO13" s="90"/>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="90"/>
+      <c r="AR13" s="90"/>
+      <c r="AS13" s="90"/>
+      <c r="AT13" s="90"/>
+      <c r="AU13" s="90"/>
+      <c r="AV13" s="90"/>
+      <c r="AW13" s="90"/>
+      <c r="AX13" s="90"/>
+      <c r="AY13" s="90"/>
+      <c r="AZ13" s="91"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -4082,56 +4079,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="84"/>
-      <c r="AK14" s="84"/>
-      <c r="AL14" s="85"/>
-      <c r="AM14" s="83"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="84"/>
-      <c r="AQ14" s="84"/>
-      <c r="AR14" s="84"/>
-      <c r="AS14" s="84"/>
-      <c r="AT14" s="84"/>
-      <c r="AU14" s="84"/>
-      <c r="AV14" s="84"/>
-      <c r="AW14" s="84"/>
-      <c r="AX14" s="84"/>
-      <c r="AY14" s="84"/>
-      <c r="AZ14" s="85"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="90"/>
+      <c r="AJ14" s="90"/>
+      <c r="AK14" s="90"/>
+      <c r="AL14" s="91"/>
+      <c r="AM14" s="89"/>
+      <c r="AN14" s="90"/>
+      <c r="AO14" s="90"/>
+      <c r="AP14" s="90"/>
+      <c r="AQ14" s="90"/>
+      <c r="AR14" s="90"/>
+      <c r="AS14" s="90"/>
+      <c r="AT14" s="90"/>
+      <c r="AU14" s="90"/>
+      <c r="AV14" s="90"/>
+      <c r="AW14" s="90"/>
+      <c r="AX14" s="90"/>
+      <c r="AY14" s="90"/>
+      <c r="AZ14" s="91"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -4139,56 +4136,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AK15" s="84"/>
-      <c r="AL15" s="85"/>
-      <c r="AM15" s="83"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="84"/>
-      <c r="AP15" s="84"/>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="84"/>
-      <c r="AS15" s="84"/>
-      <c r="AT15" s="84"/>
-      <c r="AU15" s="84"/>
-      <c r="AV15" s="84"/>
-      <c r="AW15" s="84"/>
-      <c r="AX15" s="84"/>
-      <c r="AY15" s="84"/>
-      <c r="AZ15" s="85"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="90"/>
+      <c r="AJ15" s="90"/>
+      <c r="AK15" s="90"/>
+      <c r="AL15" s="91"/>
+      <c r="AM15" s="89"/>
+      <c r="AN15" s="90"/>
+      <c r="AO15" s="90"/>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="90"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="90"/>
+      <c r="AT15" s="90"/>
+      <c r="AU15" s="90"/>
+      <c r="AV15" s="90"/>
+      <c r="AW15" s="90"/>
+      <c r="AX15" s="90"/>
+      <c r="AY15" s="90"/>
+      <c r="AZ15" s="91"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -4196,56 +4193,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="84"/>
-      <c r="AJ16" s="84"/>
-      <c r="AK16" s="84"/>
-      <c r="AL16" s="85"/>
-      <c r="AM16" s="83"/>
-      <c r="AN16" s="84"/>
-      <c r="AO16" s="84"/>
-      <c r="AP16" s="84"/>
-      <c r="AQ16" s="84"/>
-      <c r="AR16" s="84"/>
-      <c r="AS16" s="84"/>
-      <c r="AT16" s="84"/>
-      <c r="AU16" s="84"/>
-      <c r="AV16" s="84"/>
-      <c r="AW16" s="84"/>
-      <c r="AX16" s="84"/>
-      <c r="AY16" s="84"/>
-      <c r="AZ16" s="85"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="90"/>
+      <c r="AJ16" s="90"/>
+      <c r="AK16" s="90"/>
+      <c r="AL16" s="91"/>
+      <c r="AM16" s="89"/>
+      <c r="AN16" s="90"/>
+      <c r="AO16" s="90"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="90"/>
+      <c r="AR16" s="90"/>
+      <c r="AS16" s="90"/>
+      <c r="AT16" s="90"/>
+      <c r="AU16" s="90"/>
+      <c r="AV16" s="90"/>
+      <c r="AW16" s="90"/>
+      <c r="AX16" s="90"/>
+      <c r="AY16" s="90"/>
+      <c r="AZ16" s="91"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -4253,56 +4250,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="84"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="84"/>
-      <c r="AJ17" s="84"/>
-      <c r="AK17" s="84"/>
-      <c r="AL17" s="85"/>
-      <c r="AM17" s="83"/>
-      <c r="AN17" s="84"/>
-      <c r="AO17" s="84"/>
-      <c r="AP17" s="84"/>
-      <c r="AQ17" s="84"/>
-      <c r="AR17" s="84"/>
-      <c r="AS17" s="84"/>
-      <c r="AT17" s="84"/>
-      <c r="AU17" s="84"/>
-      <c r="AV17" s="84"/>
-      <c r="AW17" s="84"/>
-      <c r="AX17" s="84"/>
-      <c r="AY17" s="84"/>
-      <c r="AZ17" s="85"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="90"/>
+      <c r="AJ17" s="90"/>
+      <c r="AK17" s="90"/>
+      <c r="AL17" s="91"/>
+      <c r="AM17" s="89"/>
+      <c r="AN17" s="90"/>
+      <c r="AO17" s="90"/>
+      <c r="AP17" s="90"/>
+      <c r="AQ17" s="90"/>
+      <c r="AR17" s="90"/>
+      <c r="AS17" s="90"/>
+      <c r="AT17" s="90"/>
+      <c r="AU17" s="90"/>
+      <c r="AV17" s="90"/>
+      <c r="AW17" s="90"/>
+      <c r="AX17" s="90"/>
+      <c r="AY17" s="90"/>
+      <c r="AZ17" s="91"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -4310,56 +4307,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="84"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="84"/>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
-      <c r="AK18" s="84"/>
-      <c r="AL18" s="85"/>
-      <c r="AM18" s="83"/>
-      <c r="AN18" s="84"/>
-      <c r="AO18" s="84"/>
-      <c r="AP18" s="84"/>
-      <c r="AQ18" s="84"/>
-      <c r="AR18" s="84"/>
-      <c r="AS18" s="84"/>
-      <c r="AT18" s="84"/>
-      <c r="AU18" s="84"/>
-      <c r="AV18" s="84"/>
-      <c r="AW18" s="84"/>
-      <c r="AX18" s="84"/>
-      <c r="AY18" s="84"/>
-      <c r="AZ18" s="85"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="90"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="90"/>
+      <c r="AK18" s="90"/>
+      <c r="AL18" s="91"/>
+      <c r="AM18" s="89"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="90"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="90"/>
+      <c r="AT18" s="90"/>
+      <c r="AU18" s="90"/>
+      <c r="AV18" s="90"/>
+      <c r="AW18" s="90"/>
+      <c r="AX18" s="90"/>
+      <c r="AY18" s="90"/>
+      <c r="AZ18" s="91"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -4367,56 +4364,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="84"/>
-      <c r="AB19" s="84"/>
-      <c r="AC19" s="84"/>
-      <c r="AD19" s="84"/>
-      <c r="AE19" s="84"/>
-      <c r="AF19" s="84"/>
-      <c r="AG19" s="84"/>
-      <c r="AH19" s="84"/>
-      <c r="AI19" s="84"/>
-      <c r="AJ19" s="84"/>
-      <c r="AK19" s="84"/>
-      <c r="AL19" s="85"/>
-      <c r="AM19" s="83"/>
-      <c r="AN19" s="84"/>
-      <c r="AO19" s="84"/>
-      <c r="AP19" s="84"/>
-      <c r="AQ19" s="84"/>
-      <c r="AR19" s="84"/>
-      <c r="AS19" s="84"/>
-      <c r="AT19" s="84"/>
-      <c r="AU19" s="84"/>
-      <c r="AV19" s="84"/>
-      <c r="AW19" s="84"/>
-      <c r="AX19" s="84"/>
-      <c r="AY19" s="84"/>
-      <c r="AZ19" s="85"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="90"/>
+      <c r="AI19" s="90"/>
+      <c r="AJ19" s="90"/>
+      <c r="AK19" s="90"/>
+      <c r="AL19" s="91"/>
+      <c r="AM19" s="89"/>
+      <c r="AN19" s="90"/>
+      <c r="AO19" s="90"/>
+      <c r="AP19" s="90"/>
+      <c r="AQ19" s="90"/>
+      <c r="AR19" s="90"/>
+      <c r="AS19" s="90"/>
+      <c r="AT19" s="90"/>
+      <c r="AU19" s="90"/>
+      <c r="AV19" s="90"/>
+      <c r="AW19" s="90"/>
+      <c r="AX19" s="90"/>
+      <c r="AY19" s="90"/>
+      <c r="AZ19" s="91"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -4424,56 +4421,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="84"/>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="84"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="84"/>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="84"/>
-      <c r="AK20" s="84"/>
-      <c r="AL20" s="85"/>
-      <c r="AM20" s="83"/>
-      <c r="AN20" s="84"/>
-      <c r="AO20" s="84"/>
-      <c r="AP20" s="84"/>
-      <c r="AQ20" s="84"/>
-      <c r="AR20" s="84"/>
-      <c r="AS20" s="84"/>
-      <c r="AT20" s="84"/>
-      <c r="AU20" s="84"/>
-      <c r="AV20" s="84"/>
-      <c r="AW20" s="84"/>
-      <c r="AX20" s="84"/>
-      <c r="AY20" s="84"/>
-      <c r="AZ20" s="85"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="90"/>
+      <c r="AJ20" s="90"/>
+      <c r="AK20" s="90"/>
+      <c r="AL20" s="91"/>
+      <c r="AM20" s="89"/>
+      <c r="AN20" s="90"/>
+      <c r="AO20" s="90"/>
+      <c r="AP20" s="90"/>
+      <c r="AQ20" s="90"/>
+      <c r="AR20" s="90"/>
+      <c r="AS20" s="90"/>
+      <c r="AT20" s="90"/>
+      <c r="AU20" s="90"/>
+      <c r="AV20" s="90"/>
+      <c r="AW20" s="90"/>
+      <c r="AX20" s="90"/>
+      <c r="AY20" s="90"/>
+      <c r="AZ20" s="91"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -4481,56 +4478,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="84"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="84"/>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="84"/>
-      <c r="AJ21" s="84"/>
-      <c r="AK21" s="84"/>
-      <c r="AL21" s="85"/>
-      <c r="AM21" s="83"/>
-      <c r="AN21" s="84"/>
-      <c r="AO21" s="84"/>
-      <c r="AP21" s="84"/>
-      <c r="AQ21" s="84"/>
-      <c r="AR21" s="84"/>
-      <c r="AS21" s="84"/>
-      <c r="AT21" s="84"/>
-      <c r="AU21" s="84"/>
-      <c r="AV21" s="84"/>
-      <c r="AW21" s="84"/>
-      <c r="AX21" s="84"/>
-      <c r="AY21" s="84"/>
-      <c r="AZ21" s="85"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="90"/>
+      <c r="AJ21" s="90"/>
+      <c r="AK21" s="90"/>
+      <c r="AL21" s="91"/>
+      <c r="AM21" s="89"/>
+      <c r="AN21" s="90"/>
+      <c r="AO21" s="90"/>
+      <c r="AP21" s="90"/>
+      <c r="AQ21" s="90"/>
+      <c r="AR21" s="90"/>
+      <c r="AS21" s="90"/>
+      <c r="AT21" s="90"/>
+      <c r="AU21" s="90"/>
+      <c r="AV21" s="90"/>
+      <c r="AW21" s="90"/>
+      <c r="AX21" s="90"/>
+      <c r="AY21" s="90"/>
+      <c r="AZ21" s="91"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -4538,56 +4535,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84"/>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="84"/>
-      <c r="AL22" s="85"/>
-      <c r="AM22" s="83"/>
-      <c r="AN22" s="84"/>
-      <c r="AO22" s="84"/>
-      <c r="AP22" s="84"/>
-      <c r="AQ22" s="84"/>
-      <c r="AR22" s="84"/>
-      <c r="AS22" s="84"/>
-      <c r="AT22" s="84"/>
-      <c r="AU22" s="84"/>
-      <c r="AV22" s="84"/>
-      <c r="AW22" s="84"/>
-      <c r="AX22" s="84"/>
-      <c r="AY22" s="84"/>
-      <c r="AZ22" s="85"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="90"/>
+      <c r="AH22" s="90"/>
+      <c r="AI22" s="90"/>
+      <c r="AJ22" s="90"/>
+      <c r="AK22" s="90"/>
+      <c r="AL22" s="91"/>
+      <c r="AM22" s="89"/>
+      <c r="AN22" s="90"/>
+      <c r="AO22" s="90"/>
+      <c r="AP22" s="90"/>
+      <c r="AQ22" s="90"/>
+      <c r="AR22" s="90"/>
+      <c r="AS22" s="90"/>
+      <c r="AT22" s="90"/>
+      <c r="AU22" s="90"/>
+      <c r="AV22" s="90"/>
+      <c r="AW22" s="90"/>
+      <c r="AX22" s="90"/>
+      <c r="AY22" s="90"/>
+      <c r="AZ22" s="91"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -4595,56 +4592,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="84"/>
-      <c r="AC23" s="84"/>
-      <c r="AD23" s="84"/>
-      <c r="AE23" s="84"/>
-      <c r="AF23" s="84"/>
-      <c r="AG23" s="84"/>
-      <c r="AH23" s="84"/>
-      <c r="AI23" s="84"/>
-      <c r="AJ23" s="84"/>
-      <c r="AK23" s="84"/>
-      <c r="AL23" s="85"/>
-      <c r="AM23" s="83"/>
-      <c r="AN23" s="84"/>
-      <c r="AO23" s="84"/>
-      <c r="AP23" s="84"/>
-      <c r="AQ23" s="84"/>
-      <c r="AR23" s="84"/>
-      <c r="AS23" s="84"/>
-      <c r="AT23" s="84"/>
-      <c r="AU23" s="84"/>
-      <c r="AV23" s="84"/>
-      <c r="AW23" s="84"/>
-      <c r="AX23" s="84"/>
-      <c r="AY23" s="84"/>
-      <c r="AZ23" s="85"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="90"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="90"/>
+      <c r="AG23" s="90"/>
+      <c r="AH23" s="90"/>
+      <c r="AI23" s="90"/>
+      <c r="AJ23" s="90"/>
+      <c r="AK23" s="90"/>
+      <c r="AL23" s="91"/>
+      <c r="AM23" s="89"/>
+      <c r="AN23" s="90"/>
+      <c r="AO23" s="90"/>
+      <c r="AP23" s="90"/>
+      <c r="AQ23" s="90"/>
+      <c r="AR23" s="90"/>
+      <c r="AS23" s="90"/>
+      <c r="AT23" s="90"/>
+      <c r="AU23" s="90"/>
+      <c r="AV23" s="90"/>
+      <c r="AW23" s="90"/>
+      <c r="AX23" s="90"/>
+      <c r="AY23" s="90"/>
+      <c r="AZ23" s="91"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -4652,56 +4649,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="84"/>
-      <c r="AC24" s="84"/>
-      <c r="AD24" s="84"/>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="84"/>
-      <c r="AG24" s="84"/>
-      <c r="AH24" s="84"/>
-      <c r="AI24" s="84"/>
-      <c r="AJ24" s="84"/>
-      <c r="AK24" s="84"/>
-      <c r="AL24" s="85"/>
-      <c r="AM24" s="83"/>
-      <c r="AN24" s="84"/>
-      <c r="AO24" s="84"/>
-      <c r="AP24" s="84"/>
-      <c r="AQ24" s="84"/>
-      <c r="AR24" s="84"/>
-      <c r="AS24" s="84"/>
-      <c r="AT24" s="84"/>
-      <c r="AU24" s="84"/>
-      <c r="AV24" s="84"/>
-      <c r="AW24" s="84"/>
-      <c r="AX24" s="84"/>
-      <c r="AY24" s="84"/>
-      <c r="AZ24" s="85"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="90"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="90"/>
+      <c r="AJ24" s="90"/>
+      <c r="AK24" s="90"/>
+      <c r="AL24" s="91"/>
+      <c r="AM24" s="89"/>
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="90"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="90"/>
+      <c r="AR24" s="90"/>
+      <c r="AS24" s="90"/>
+      <c r="AT24" s="90"/>
+      <c r="AU24" s="90"/>
+      <c r="AV24" s="90"/>
+      <c r="AW24" s="90"/>
+      <c r="AX24" s="90"/>
+      <c r="AY24" s="90"/>
+      <c r="AZ24" s="91"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -4709,56 +4706,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="84"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="84"/>
-      <c r="AG25" s="84"/>
-      <c r="AH25" s="84"/>
-      <c r="AI25" s="84"/>
-      <c r="AJ25" s="84"/>
-      <c r="AK25" s="84"/>
-      <c r="AL25" s="85"/>
-      <c r="AM25" s="83"/>
-      <c r="AN25" s="84"/>
-      <c r="AO25" s="84"/>
-      <c r="AP25" s="84"/>
-      <c r="AQ25" s="84"/>
-      <c r="AR25" s="84"/>
-      <c r="AS25" s="84"/>
-      <c r="AT25" s="84"/>
-      <c r="AU25" s="84"/>
-      <c r="AV25" s="84"/>
-      <c r="AW25" s="84"/>
-      <c r="AX25" s="84"/>
-      <c r="AY25" s="84"/>
-      <c r="AZ25" s="85"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="90"/>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="90"/>
+      <c r="AK25" s="90"/>
+      <c r="AL25" s="91"/>
+      <c r="AM25" s="89"/>
+      <c r="AN25" s="90"/>
+      <c r="AO25" s="90"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="90"/>
+      <c r="AU25" s="90"/>
+      <c r="AV25" s="90"/>
+      <c r="AW25" s="90"/>
+      <c r="AX25" s="90"/>
+      <c r="AY25" s="90"/>
+      <c r="AZ25" s="91"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -4766,56 +4763,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="84"/>
-      <c r="X26" s="84"/>
-      <c r="Y26" s="84"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="84"/>
-      <c r="AC26" s="84"/>
-      <c r="AD26" s="84"/>
-      <c r="AE26" s="84"/>
-      <c r="AF26" s="84"/>
-      <c r="AG26" s="84"/>
-      <c r="AH26" s="84"/>
-      <c r="AI26" s="84"/>
-      <c r="AJ26" s="84"/>
-      <c r="AK26" s="84"/>
-      <c r="AL26" s="85"/>
-      <c r="AM26" s="83"/>
-      <c r="AN26" s="84"/>
-      <c r="AO26" s="84"/>
-      <c r="AP26" s="84"/>
-      <c r="AQ26" s="84"/>
-      <c r="AR26" s="84"/>
-      <c r="AS26" s="84"/>
-      <c r="AT26" s="84"/>
-      <c r="AU26" s="84"/>
-      <c r="AV26" s="84"/>
-      <c r="AW26" s="84"/>
-      <c r="AX26" s="84"/>
-      <c r="AY26" s="84"/>
-      <c r="AZ26" s="85"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="90"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="90"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="90"/>
+      <c r="AG26" s="90"/>
+      <c r="AH26" s="90"/>
+      <c r="AI26" s="90"/>
+      <c r="AJ26" s="90"/>
+      <c r="AK26" s="90"/>
+      <c r="AL26" s="91"/>
+      <c r="AM26" s="89"/>
+      <c r="AN26" s="90"/>
+      <c r="AO26" s="90"/>
+      <c r="AP26" s="90"/>
+      <c r="AQ26" s="90"/>
+      <c r="AR26" s="90"/>
+      <c r="AS26" s="90"/>
+      <c r="AT26" s="90"/>
+      <c r="AU26" s="90"/>
+      <c r="AV26" s="90"/>
+      <c r="AW26" s="90"/>
+      <c r="AX26" s="90"/>
+      <c r="AY26" s="90"/>
+      <c r="AZ26" s="91"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -4823,56 +4820,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="84"/>
-      <c r="Y27" s="84"/>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="84"/>
-      <c r="AB27" s="84"/>
-      <c r="AC27" s="84"/>
-      <c r="AD27" s="84"/>
-      <c r="AE27" s="84"/>
-      <c r="AF27" s="84"/>
-      <c r="AG27" s="84"/>
-      <c r="AH27" s="84"/>
-      <c r="AI27" s="84"/>
-      <c r="AJ27" s="84"/>
-      <c r="AK27" s="84"/>
-      <c r="AL27" s="85"/>
-      <c r="AM27" s="83"/>
-      <c r="AN27" s="84"/>
-      <c r="AO27" s="84"/>
-      <c r="AP27" s="84"/>
-      <c r="AQ27" s="84"/>
-      <c r="AR27" s="84"/>
-      <c r="AS27" s="84"/>
-      <c r="AT27" s="84"/>
-      <c r="AU27" s="84"/>
-      <c r="AV27" s="84"/>
-      <c r="AW27" s="84"/>
-      <c r="AX27" s="84"/>
-      <c r="AY27" s="84"/>
-      <c r="AZ27" s="85"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="90"/>
+      <c r="AB27" s="90"/>
+      <c r="AC27" s="90"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="90"/>
+      <c r="AK27" s="90"/>
+      <c r="AL27" s="91"/>
+      <c r="AM27" s="89"/>
+      <c r="AN27" s="90"/>
+      <c r="AO27" s="90"/>
+      <c r="AP27" s="90"/>
+      <c r="AQ27" s="90"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="90"/>
+      <c r="AX27" s="90"/>
+      <c r="AY27" s="90"/>
+      <c r="AZ27" s="91"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -4880,56 +4877,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="84"/>
-      <c r="X28" s="84"/>
-      <c r="Y28" s="84"/>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="84"/>
-      <c r="AB28" s="84"/>
-      <c r="AC28" s="84"/>
-      <c r="AD28" s="84"/>
-      <c r="AE28" s="84"/>
-      <c r="AF28" s="84"/>
-      <c r="AG28" s="84"/>
-      <c r="AH28" s="84"/>
-      <c r="AI28" s="84"/>
-      <c r="AJ28" s="84"/>
-      <c r="AK28" s="84"/>
-      <c r="AL28" s="85"/>
-      <c r="AM28" s="83"/>
-      <c r="AN28" s="84"/>
-      <c r="AO28" s="84"/>
-      <c r="AP28" s="84"/>
-      <c r="AQ28" s="84"/>
-      <c r="AR28" s="84"/>
-      <c r="AS28" s="84"/>
-      <c r="AT28" s="84"/>
-      <c r="AU28" s="84"/>
-      <c r="AV28" s="84"/>
-      <c r="AW28" s="84"/>
-      <c r="AX28" s="84"/>
-      <c r="AY28" s="84"/>
-      <c r="AZ28" s="85"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="90"/>
+      <c r="AD28" s="90"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="90"/>
+      <c r="AG28" s="90"/>
+      <c r="AH28" s="90"/>
+      <c r="AI28" s="90"/>
+      <c r="AJ28" s="90"/>
+      <c r="AK28" s="90"/>
+      <c r="AL28" s="91"/>
+      <c r="AM28" s="89"/>
+      <c r="AN28" s="90"/>
+      <c r="AO28" s="90"/>
+      <c r="AP28" s="90"/>
+      <c r="AQ28" s="90"/>
+      <c r="AR28" s="90"/>
+      <c r="AS28" s="90"/>
+      <c r="AT28" s="90"/>
+      <c r="AU28" s="90"/>
+      <c r="AV28" s="90"/>
+      <c r="AW28" s="90"/>
+      <c r="AX28" s="90"/>
+      <c r="AY28" s="90"/>
+      <c r="AZ28" s="91"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -4937,56 +4934,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="84"/>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="84"/>
-      <c r="AH29" s="84"/>
-      <c r="AI29" s="84"/>
-      <c r="AJ29" s="84"/>
-      <c r="AK29" s="84"/>
-      <c r="AL29" s="85"/>
-      <c r="AM29" s="83"/>
-      <c r="AN29" s="84"/>
-      <c r="AO29" s="84"/>
-      <c r="AP29" s="84"/>
-      <c r="AQ29" s="84"/>
-      <c r="AR29" s="84"/>
-      <c r="AS29" s="84"/>
-      <c r="AT29" s="84"/>
-      <c r="AU29" s="84"/>
-      <c r="AV29" s="84"/>
-      <c r="AW29" s="84"/>
-      <c r="AX29" s="84"/>
-      <c r="AY29" s="84"/>
-      <c r="AZ29" s="85"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="90"/>
+      <c r="AB29" s="90"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="90"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="90"/>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="90"/>
+      <c r="AI29" s="90"/>
+      <c r="AJ29" s="90"/>
+      <c r="AK29" s="90"/>
+      <c r="AL29" s="91"/>
+      <c r="AM29" s="89"/>
+      <c r="AN29" s="90"/>
+      <c r="AO29" s="90"/>
+      <c r="AP29" s="90"/>
+      <c r="AQ29" s="90"/>
+      <c r="AR29" s="90"/>
+      <c r="AS29" s="90"/>
+      <c r="AT29" s="90"/>
+      <c r="AU29" s="90"/>
+      <c r="AV29" s="90"/>
+      <c r="AW29" s="90"/>
+      <c r="AX29" s="90"/>
+      <c r="AY29" s="90"/>
+      <c r="AZ29" s="91"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -4994,56 +4991,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="84"/>
-      <c r="AD30" s="84"/>
-      <c r="AE30" s="84"/>
-      <c r="AF30" s="84"/>
-      <c r="AG30" s="84"/>
-      <c r="AH30" s="84"/>
-      <c r="AI30" s="84"/>
-      <c r="AJ30" s="84"/>
-      <c r="AK30" s="84"/>
-      <c r="AL30" s="85"/>
-      <c r="AM30" s="83"/>
-      <c r="AN30" s="84"/>
-      <c r="AO30" s="84"/>
-      <c r="AP30" s="84"/>
-      <c r="AQ30" s="84"/>
-      <c r="AR30" s="84"/>
-      <c r="AS30" s="84"/>
-      <c r="AT30" s="84"/>
-      <c r="AU30" s="84"/>
-      <c r="AV30" s="84"/>
-      <c r="AW30" s="84"/>
-      <c r="AX30" s="84"/>
-      <c r="AY30" s="84"/>
-      <c r="AZ30" s="85"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="90"/>
+      <c r="AB30" s="90"/>
+      <c r="AC30" s="90"/>
+      <c r="AD30" s="90"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="90"/>
+      <c r="AG30" s="90"/>
+      <c r="AH30" s="90"/>
+      <c r="AI30" s="90"/>
+      <c r="AJ30" s="90"/>
+      <c r="AK30" s="90"/>
+      <c r="AL30" s="91"/>
+      <c r="AM30" s="89"/>
+      <c r="AN30" s="90"/>
+      <c r="AO30" s="90"/>
+      <c r="AP30" s="90"/>
+      <c r="AQ30" s="90"/>
+      <c r="AR30" s="90"/>
+      <c r="AS30" s="90"/>
+      <c r="AT30" s="90"/>
+      <c r="AU30" s="90"/>
+      <c r="AV30" s="90"/>
+      <c r="AW30" s="90"/>
+      <c r="AX30" s="90"/>
+      <c r="AY30" s="90"/>
+      <c r="AZ30" s="91"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -5051,56 +5048,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="84"/>
-      <c r="AC31" s="84"/>
-      <c r="AD31" s="84"/>
-      <c r="AE31" s="84"/>
-      <c r="AF31" s="84"/>
-      <c r="AG31" s="84"/>
-      <c r="AH31" s="84"/>
-      <c r="AI31" s="84"/>
-      <c r="AJ31" s="84"/>
-      <c r="AK31" s="84"/>
-      <c r="AL31" s="85"/>
-      <c r="AM31" s="83"/>
-      <c r="AN31" s="84"/>
-      <c r="AO31" s="84"/>
-      <c r="AP31" s="84"/>
-      <c r="AQ31" s="84"/>
-      <c r="AR31" s="84"/>
-      <c r="AS31" s="84"/>
-      <c r="AT31" s="84"/>
-      <c r="AU31" s="84"/>
-      <c r="AV31" s="84"/>
-      <c r="AW31" s="84"/>
-      <c r="AX31" s="84"/>
-      <c r="AY31" s="84"/>
-      <c r="AZ31" s="85"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="90"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="90"/>
+      <c r="AI31" s="90"/>
+      <c r="AJ31" s="90"/>
+      <c r="AK31" s="90"/>
+      <c r="AL31" s="91"/>
+      <c r="AM31" s="89"/>
+      <c r="AN31" s="90"/>
+      <c r="AO31" s="90"/>
+      <c r="AP31" s="90"/>
+      <c r="AQ31" s="90"/>
+      <c r="AR31" s="90"/>
+      <c r="AS31" s="90"/>
+      <c r="AT31" s="90"/>
+      <c r="AU31" s="90"/>
+      <c r="AV31" s="90"/>
+      <c r="AW31" s="90"/>
+      <c r="AX31" s="90"/>
+      <c r="AY31" s="90"/>
+      <c r="AZ31" s="91"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -5108,56 +5105,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="84"/>
-      <c r="W32" s="84"/>
-      <c r="X32" s="84"/>
-      <c r="Y32" s="84"/>
-      <c r="Z32" s="84"/>
-      <c r="AA32" s="84"/>
-      <c r="AB32" s="84"/>
-      <c r="AC32" s="84"/>
-      <c r="AD32" s="84"/>
-      <c r="AE32" s="84"/>
-      <c r="AF32" s="84"/>
-      <c r="AG32" s="84"/>
-      <c r="AH32" s="84"/>
-      <c r="AI32" s="84"/>
-      <c r="AJ32" s="84"/>
-      <c r="AK32" s="84"/>
-      <c r="AL32" s="85"/>
-      <c r="AM32" s="83"/>
-      <c r="AN32" s="84"/>
-      <c r="AO32" s="84"/>
-      <c r="AP32" s="84"/>
-      <c r="AQ32" s="84"/>
-      <c r="AR32" s="84"/>
-      <c r="AS32" s="84"/>
-      <c r="AT32" s="84"/>
-      <c r="AU32" s="84"/>
-      <c r="AV32" s="84"/>
-      <c r="AW32" s="84"/>
-      <c r="AX32" s="84"/>
-      <c r="AY32" s="84"/>
-      <c r="AZ32" s="85"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="90"/>
+      <c r="AB32" s="90"/>
+      <c r="AC32" s="90"/>
+      <c r="AD32" s="90"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="90"/>
+      <c r="AG32" s="90"/>
+      <c r="AH32" s="90"/>
+      <c r="AI32" s="90"/>
+      <c r="AJ32" s="90"/>
+      <c r="AK32" s="90"/>
+      <c r="AL32" s="91"/>
+      <c r="AM32" s="89"/>
+      <c r="AN32" s="90"/>
+      <c r="AO32" s="90"/>
+      <c r="AP32" s="90"/>
+      <c r="AQ32" s="90"/>
+      <c r="AR32" s="90"/>
+      <c r="AS32" s="90"/>
+      <c r="AT32" s="90"/>
+      <c r="AU32" s="90"/>
+      <c r="AV32" s="90"/>
+      <c r="AW32" s="90"/>
+      <c r="AX32" s="90"/>
+      <c r="AY32" s="90"/>
+      <c r="AZ32" s="91"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -5165,56 +5162,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="84"/>
-      <c r="X33" s="84"/>
-      <c r="Y33" s="84"/>
-      <c r="Z33" s="84"/>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="84"/>
-      <c r="AC33" s="84"/>
-      <c r="AD33" s="84"/>
-      <c r="AE33" s="84"/>
-      <c r="AF33" s="84"/>
-      <c r="AG33" s="84"/>
-      <c r="AH33" s="84"/>
-      <c r="AI33" s="84"/>
-      <c r="AJ33" s="84"/>
-      <c r="AK33" s="84"/>
-      <c r="AL33" s="85"/>
-      <c r="AM33" s="83"/>
-      <c r="AN33" s="84"/>
-      <c r="AO33" s="84"/>
-      <c r="AP33" s="84"/>
-      <c r="AQ33" s="84"/>
-      <c r="AR33" s="84"/>
-      <c r="AS33" s="84"/>
-      <c r="AT33" s="84"/>
-      <c r="AU33" s="84"/>
-      <c r="AV33" s="84"/>
-      <c r="AW33" s="84"/>
-      <c r="AX33" s="84"/>
-      <c r="AY33" s="84"/>
-      <c r="AZ33" s="85"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="90"/>
+      <c r="AB33" s="90"/>
+      <c r="AC33" s="90"/>
+      <c r="AD33" s="90"/>
+      <c r="AE33" s="90"/>
+      <c r="AF33" s="90"/>
+      <c r="AG33" s="90"/>
+      <c r="AH33" s="90"/>
+      <c r="AI33" s="90"/>
+      <c r="AJ33" s="90"/>
+      <c r="AK33" s="90"/>
+      <c r="AL33" s="91"/>
+      <c r="AM33" s="89"/>
+      <c r="AN33" s="90"/>
+      <c r="AO33" s="90"/>
+      <c r="AP33" s="90"/>
+      <c r="AQ33" s="90"/>
+      <c r="AR33" s="90"/>
+      <c r="AS33" s="90"/>
+      <c r="AT33" s="90"/>
+      <c r="AU33" s="90"/>
+      <c r="AV33" s="90"/>
+      <c r="AW33" s="90"/>
+      <c r="AX33" s="90"/>
+      <c r="AY33" s="90"/>
+      <c r="AZ33" s="91"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -5222,56 +5219,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="84"/>
-      <c r="X34" s="84"/>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="84"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="84"/>
-      <c r="AC34" s="84"/>
-      <c r="AD34" s="84"/>
-      <c r="AE34" s="84"/>
-      <c r="AF34" s="84"/>
-      <c r="AG34" s="84"/>
-      <c r="AH34" s="84"/>
-      <c r="AI34" s="84"/>
-      <c r="AJ34" s="84"/>
-      <c r="AK34" s="84"/>
-      <c r="AL34" s="85"/>
-      <c r="AM34" s="83"/>
-      <c r="AN34" s="84"/>
-      <c r="AO34" s="84"/>
-      <c r="AP34" s="84"/>
-      <c r="AQ34" s="84"/>
-      <c r="AR34" s="84"/>
-      <c r="AS34" s="84"/>
-      <c r="AT34" s="84"/>
-      <c r="AU34" s="84"/>
-      <c r="AV34" s="84"/>
-      <c r="AW34" s="84"/>
-      <c r="AX34" s="84"/>
-      <c r="AY34" s="84"/>
-      <c r="AZ34" s="85"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="90"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="90"/>
+      <c r="U34" s="90"/>
+      <c r="V34" s="90"/>
+      <c r="W34" s="90"/>
+      <c r="X34" s="90"/>
+      <c r="Y34" s="90"/>
+      <c r="Z34" s="90"/>
+      <c r="AA34" s="90"/>
+      <c r="AB34" s="90"/>
+      <c r="AC34" s="90"/>
+      <c r="AD34" s="90"/>
+      <c r="AE34" s="90"/>
+      <c r="AF34" s="90"/>
+      <c r="AG34" s="90"/>
+      <c r="AH34" s="90"/>
+      <c r="AI34" s="90"/>
+      <c r="AJ34" s="90"/>
+      <c r="AK34" s="90"/>
+      <c r="AL34" s="91"/>
+      <c r="AM34" s="89"/>
+      <c r="AN34" s="90"/>
+      <c r="AO34" s="90"/>
+      <c r="AP34" s="90"/>
+      <c r="AQ34" s="90"/>
+      <c r="AR34" s="90"/>
+      <c r="AS34" s="90"/>
+      <c r="AT34" s="90"/>
+      <c r="AU34" s="90"/>
+      <c r="AV34" s="90"/>
+      <c r="AW34" s="90"/>
+      <c r="AX34" s="90"/>
+      <c r="AY34" s="90"/>
+      <c r="AZ34" s="91"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="9" t="str">
@@ -5279,56 +5276,56 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="84"/>
-      <c r="S35" s="84"/>
-      <c r="T35" s="84"/>
-      <c r="U35" s="84"/>
-      <c r="V35" s="84"/>
-      <c r="W35" s="84"/>
-      <c r="X35" s="84"/>
-      <c r="Y35" s="84"/>
-      <c r="Z35" s="84"/>
-      <c r="AA35" s="84"/>
-      <c r="AB35" s="84"/>
-      <c r="AC35" s="84"/>
-      <c r="AD35" s="84"/>
-      <c r="AE35" s="84"/>
-      <c r="AF35" s="84"/>
-      <c r="AG35" s="84"/>
-      <c r="AH35" s="84"/>
-      <c r="AI35" s="84"/>
-      <c r="AJ35" s="84"/>
-      <c r="AK35" s="84"/>
-      <c r="AL35" s="85"/>
-      <c r="AM35" s="83"/>
-      <c r="AN35" s="84"/>
-      <c r="AO35" s="84"/>
-      <c r="AP35" s="84"/>
-      <c r="AQ35" s="84"/>
-      <c r="AR35" s="84"/>
-      <c r="AS35" s="84"/>
-      <c r="AT35" s="84"/>
-      <c r="AU35" s="84"/>
-      <c r="AV35" s="84"/>
-      <c r="AW35" s="84"/>
-      <c r="AX35" s="84"/>
-      <c r="AY35" s="84"/>
-      <c r="AZ35" s="85"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="90"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="90"/>
+      <c r="U35" s="90"/>
+      <c r="V35" s="90"/>
+      <c r="W35" s="90"/>
+      <c r="X35" s="90"/>
+      <c r="Y35" s="90"/>
+      <c r="Z35" s="90"/>
+      <c r="AA35" s="90"/>
+      <c r="AB35" s="90"/>
+      <c r="AC35" s="90"/>
+      <c r="AD35" s="90"/>
+      <c r="AE35" s="90"/>
+      <c r="AF35" s="90"/>
+      <c r="AG35" s="90"/>
+      <c r="AH35" s="90"/>
+      <c r="AI35" s="90"/>
+      <c r="AJ35" s="90"/>
+      <c r="AK35" s="90"/>
+      <c r="AL35" s="91"/>
+      <c r="AM35" s="89"/>
+      <c r="AN35" s="90"/>
+      <c r="AO35" s="90"/>
+      <c r="AP35" s="90"/>
+      <c r="AQ35" s="90"/>
+      <c r="AR35" s="90"/>
+      <c r="AS35" s="90"/>
+      <c r="AT35" s="90"/>
+      <c r="AU35" s="90"/>
+      <c r="AV35" s="90"/>
+      <c r="AW35" s="90"/>
+      <c r="AX35" s="90"/>
+      <c r="AY35" s="90"/>
+      <c r="AZ35" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="140">
@@ -5485,9 +5482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
   <dimension ref="A1:BL72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
@@ -5815,7 +5810,7 @@
     </row>
     <row r="6" spans="1:60" customFormat="1">
       <c r="A6" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -5879,7 +5874,7 @@
     </row>
     <row r="7" spans="1:60">
       <c r="A7" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -6328,7 +6323,7 @@
       <c r="F14" s="48"/>
       <c r="H14" s="48"/>
       <c r="I14" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
@@ -6338,7 +6333,7 @@
       <c r="O14" s="48"/>
       <c r="P14" s="48"/>
       <c r="Q14" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R14" s="48"/>
       <c r="S14" s="48"/>
@@ -6352,7 +6347,7 @@
       <c r="AA14" s="48"/>
       <c r="AB14" s="48"/>
       <c r="AD14" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE14" s="48"/>
       <c r="AF14" s="48"/>
@@ -8895,7 +8890,7 @@
       <c r="S55" s="49"/>
       <c r="T55" s="50"/>
       <c r="U55" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V55" s="31"/>
       <c r="W55" s="31"/>
@@ -8914,7 +8909,7 @@
       <c r="AH55" s="33"/>
       <c r="AI55" s="30"/>
       <c r="AJ55" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK55" s="33"/>
       <c r="AL55" s="33"/>
@@ -8939,7 +8934,7 @@
       </c>
       <c r="C56" s="43"/>
       <c r="D56" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E56" s="42"/>
       <c r="F56" s="42"/>
@@ -8953,7 +8948,7 @@
       <c r="N56" s="42"/>
       <c r="O56" s="43"/>
       <c r="P56" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q56" s="42"/>
       <c r="R56" s="42"/>
@@ -9000,7 +8995,7 @@
       <c r="B57" s="44"/>
       <c r="C57" s="43"/>
       <c r="D57" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E57" s="42"/>
       <c r="F57" s="42"/>
@@ -9014,7 +9009,7 @@
       <c r="N57" s="42"/>
       <c r="O57" s="43"/>
       <c r="P57" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q57" s="42"/>
       <c r="R57" s="42"/>
@@ -9063,7 +9058,7 @@
       </c>
       <c r="C58" s="43"/>
       <c r="D58" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E58" s="42"/>
       <c r="F58" s="42"/>
@@ -9077,14 +9072,14 @@
       <c r="N58" s="42"/>
       <c r="O58" s="43"/>
       <c r="P58" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q58" s="42"/>
       <c r="R58" s="42"/>
       <c r="S58" s="42"/>
       <c r="T58" s="43"/>
       <c r="U58" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V58" s="42"/>
       <c r="W58" s="42"/>
@@ -9126,7 +9121,7 @@
       </c>
       <c r="C59" s="43"/>
       <c r="D59" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E59" s="42"/>
       <c r="F59" s="42"/>
@@ -9140,14 +9135,14 @@
       <c r="N59" s="42"/>
       <c r="O59" s="43"/>
       <c r="P59" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q59" s="42"/>
       <c r="R59" s="42"/>
       <c r="S59" s="42"/>
       <c r="T59" s="43"/>
       <c r="U59" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V59" s="42"/>
       <c r="W59" s="42"/>
@@ -9189,7 +9184,7 @@
       </c>
       <c r="C60" s="43"/>
       <c r="D60" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E60" s="42"/>
       <c r="F60" s="42"/>
@@ -9203,14 +9198,14 @@
       <c r="N60" s="42"/>
       <c r="O60" s="43"/>
       <c r="P60" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q60" s="42"/>
       <c r="R60" s="42"/>
       <c r="S60" s="42"/>
       <c r="T60" s="43"/>
       <c r="U60" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V60" s="42"/>
       <c r="W60" s="42"/>
@@ -9252,7 +9247,7 @@
       </c>
       <c r="C61" s="43"/>
       <c r="D61" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E61" s="42"/>
       <c r="F61" s="42"/>
@@ -9266,14 +9261,14 @@
       <c r="N61" s="42"/>
       <c r="O61" s="43"/>
       <c r="P61" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q61" s="42"/>
       <c r="R61" s="42"/>
       <c r="S61" s="42"/>
       <c r="T61" s="43"/>
       <c r="U61" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V61" s="42"/>
       <c r="W61" s="42"/>
@@ -9292,7 +9287,7 @@
       <c r="AH61" s="42"/>
       <c r="AI61" s="43"/>
       <c r="AJ61" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AK61" s="42"/>
       <c r="AL61" s="42"/>
@@ -9315,7 +9310,7 @@
       </c>
       <c r="C62" s="43"/>
       <c r="D62" s="41" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E62" s="42"/>
       <c r="F62" s="42"/>
@@ -9329,14 +9324,14 @@
       <c r="N62" s="42"/>
       <c r="O62" s="43"/>
       <c r="P62" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q62" s="42"/>
       <c r="R62" s="42"/>
       <c r="S62" s="42"/>
       <c r="T62" s="43"/>
       <c r="U62" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V62" s="42"/>
       <c r="W62" s="42"/>
@@ -9378,7 +9373,7 @@
       </c>
       <c r="C63" s="43"/>
       <c r="D63" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E63" s="42"/>
       <c r="F63" s="42"/>
@@ -9392,14 +9387,14 @@
       <c r="N63" s="42"/>
       <c r="O63" s="43"/>
       <c r="P63" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q63" s="42"/>
       <c r="R63" s="42"/>
       <c r="S63" s="42"/>
       <c r="T63" s="43"/>
       <c r="U63" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V63" s="42"/>
       <c r="W63" s="42"/>
@@ -9418,7 +9413,7 @@
       <c r="AH63" s="42"/>
       <c r="AI63" s="43"/>
       <c r="AJ63" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AK63" s="42"/>
       <c r="AL63" s="42"/>
@@ -9436,66 +9431,66 @@
     </row>
     <row r="64" spans="1:60">
       <c r="A64" s="39"/>
-      <c r="B64" s="44">
+      <c r="B64" s="53">
         <v>8</v>
       </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="42"/>
-      <c r="S64" s="42"/>
-      <c r="T64" s="43"/>
-      <c r="U64" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="V64" s="42"/>
-      <c r="W64" s="42"/>
-      <c r="X64" s="42"/>
-      <c r="Y64" s="42"/>
-      <c r="Z64" s="42"/>
-      <c r="AA64" s="42"/>
-      <c r="AB64" s="42"/>
-      <c r="AC64" s="42"/>
-      <c r="AD64" s="43"/>
-      <c r="AE64" s="41" t="s">
+      <c r="C64" s="54"/>
+      <c r="D64" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="54"/>
+      <c r="U64" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="V64" s="56"/>
+      <c r="W64" s="56"/>
+      <c r="X64" s="56"/>
+      <c r="Y64" s="56"/>
+      <c r="Z64" s="56"/>
+      <c r="AA64" s="56"/>
+      <c r="AB64" s="56"/>
+      <c r="AC64" s="56"/>
+      <c r="AD64" s="54"/>
+      <c r="AE64" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="AF64" s="42"/>
-      <c r="AG64" s="42"/>
-      <c r="AH64" s="42"/>
-      <c r="AI64" s="43"/>
-      <c r="AJ64" s="41" t="s">
+      <c r="AF64" s="56"/>
+      <c r="AG64" s="56"/>
+      <c r="AH64" s="56"/>
+      <c r="AI64" s="54"/>
+      <c r="AJ64" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="AK64" s="42"/>
-      <c r="AL64" s="42"/>
-      <c r="AM64" s="42"/>
-      <c r="AN64" s="42"/>
-      <c r="AO64" s="42"/>
-      <c r="AP64" s="43"/>
-      <c r="AQ64" s="41"/>
-      <c r="AR64" s="42"/>
-      <c r="AS64" s="42"/>
-      <c r="AT64" s="42"/>
-      <c r="AU64" s="42"/>
-      <c r="AV64" s="42"/>
-      <c r="AW64" s="43"/>
+      <c r="AK64" s="56"/>
+      <c r="AL64" s="56"/>
+      <c r="AM64" s="56"/>
+      <c r="AN64" s="56"/>
+      <c r="AO64" s="56"/>
+      <c r="AP64" s="54"/>
+      <c r="AQ64" s="55"/>
+      <c r="AR64" s="56"/>
+      <c r="AS64" s="56"/>
+      <c r="AT64" s="56"/>
+      <c r="AU64" s="56"/>
+      <c r="AV64" s="56"/>
+      <c r="AW64" s="54"/>
     </row>
     <row r="65" spans="1:64">
       <c r="A65" s="39"/>
@@ -9638,16 +9633,16 @@
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
       <c r="J67" s="16"/>
-      <c r="K67" s="86" t="s">
+      <c r="K67" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="L67" s="87"/>
-      <c r="M67" s="87"/>
-      <c r="N67" s="87"/>
-      <c r="O67" s="87"/>
-      <c r="P67" s="87"/>
-      <c r="Q67" s="87"/>
-      <c r="R67" s="88"/>
+      <c r="L67" s="93"/>
+      <c r="M67" s="93"/>
+      <c r="N67" s="93"/>
+      <c r="O67" s="93"/>
+      <c r="P67" s="93"/>
+      <c r="Q67" s="93"/>
+      <c r="R67" s="94"/>
       <c r="S67" s="29" t="s">
         <v>29</v>
       </c>
@@ -9704,7 +9699,7 @@
       </c>
       <c r="C68" s="43"/>
       <c r="D68" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E68" s="42"/>
       <c r="F68" s="42"/>
@@ -9723,7 +9718,7 @@
       <c r="Q68" s="42"/>
       <c r="R68" s="43"/>
       <c r="S68" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T68" s="42"/>
       <c r="U68" s="42"/>
@@ -9850,7 +9845,7 @@
       </c>
       <c r="C70" s="43"/>
       <c r="D70" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E70" s="42"/>
       <c r="F70" s="42"/>
@@ -9869,7 +9864,7 @@
       <c r="Q70" s="42"/>
       <c r="R70" s="43"/>
       <c r="S70" s="41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T70" s="42"/>
       <c r="U70" s="42"/>
@@ -9918,62 +9913,62 @@
     </row>
     <row r="71" spans="1:64">
       <c r="A71" s="39"/>
-      <c r="B71" s="44">
+      <c r="B71" s="53">
         <v>4</v>
       </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="41" t="s">
+      <c r="C71" s="54"/>
+      <c r="D71" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
+      <c r="P71" s="56"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="54"/>
+      <c r="S71" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="L71" s="42"/>
-      <c r="M71" s="42"/>
-      <c r="N71" s="42"/>
-      <c r="O71" s="42"/>
-      <c r="P71" s="42"/>
-      <c r="Q71" s="42"/>
-      <c r="R71" s="43"/>
-      <c r="S71" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="T71" s="42"/>
-      <c r="U71" s="42"/>
-      <c r="V71" s="42"/>
-      <c r="W71" s="42"/>
-      <c r="X71" s="42"/>
-      <c r="Y71" s="42"/>
-      <c r="Z71" s="42"/>
-      <c r="AA71" s="42"/>
-      <c r="AB71" s="42"/>
-      <c r="AC71" s="42"/>
-      <c r="AD71" s="42"/>
-      <c r="AE71" s="42"/>
-      <c r="AF71" s="42"/>
-      <c r="AG71" s="42"/>
-      <c r="AH71" s="42"/>
-      <c r="AI71" s="42"/>
-      <c r="AJ71" s="42"/>
-      <c r="AK71" s="42"/>
-      <c r="AL71" s="51"/>
-      <c r="AM71" s="51"/>
-      <c r="AN71" s="51"/>
-      <c r="AO71" s="51"/>
-      <c r="AP71" s="51"/>
-      <c r="AQ71" s="51"/>
-      <c r="AR71" s="51"/>
-      <c r="AS71" s="51"/>
-      <c r="AT71" s="51"/>
-      <c r="AU71" s="51"/>
-      <c r="AV71" s="51"/>
-      <c r="AW71" s="52"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
+      <c r="V71" s="56"/>
+      <c r="W71" s="56"/>
+      <c r="X71" s="56"/>
+      <c r="Y71" s="56"/>
+      <c r="Z71" s="56"/>
+      <c r="AA71" s="56"/>
+      <c r="AB71" s="56"/>
+      <c r="AC71" s="56"/>
+      <c r="AD71" s="56"/>
+      <c r="AE71" s="56"/>
+      <c r="AF71" s="56"/>
+      <c r="AG71" s="56"/>
+      <c r="AH71" s="56"/>
+      <c r="AI71" s="56"/>
+      <c r="AJ71" s="56"/>
+      <c r="AK71" s="56"/>
+      <c r="AL71" s="57"/>
+      <c r="AM71" s="57"/>
+      <c r="AN71" s="57"/>
+      <c r="AO71" s="57"/>
+      <c r="AP71" s="57"/>
+      <c r="AQ71" s="57"/>
+      <c r="AR71" s="57"/>
+      <c r="AS71" s="57"/>
+      <c r="AT71" s="57"/>
+      <c r="AU71" s="57"/>
+      <c r="AV71" s="57"/>
+      <c r="AW71" s="58"/>
       <c r="AX71" s="40"/>
       <c r="AY71" s="40"/>
       <c r="AZ71" s="40"/>
